--- a/anexo2.xlsx
+++ b/anexo2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insper-my.sharepoint.com/personal/caiofrs_insper_edu_br/Documents/Insper/2_TERMOSOLIDOS/APS/2021/APS 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laiz-\Desktop\5º Semestre\Transcal\APS-4---transcal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_B83576887843B5F308FB41B3B0A882DC2AEE8E3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48F6A4B-2E11-40DF-BD96-CB6BDBFD4F71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B302E9-BCFB-4A04-AEB7-CF2CF7CD6B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,7 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -168,6 +181,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,9 +243,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +278,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,26 +313,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,65 +489,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9">
-        <f>COUNT(A2:A1048576)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="C2" s="5"/>
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="B3" s="14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>0.192</v>
+      </c>
+      <c r="B4" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>0.432</v>
+      </c>
+      <c r="B7" s="14">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -573,84 +609,233 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection sqref="A1:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.15" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>210000000000</v>
-      </c>
-      <c r="D2" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7">
-        <f>COUNT(A2:A1048576)</f>
+      <c r="C2" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="10">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="C3" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
-        <v>210000000000</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+      <c r="C4" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>210000000000</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2.0000000000000001E-4</v>
-      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13">
+        <v>193140000000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5.2499999999999997E-6</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -660,200 +845,231 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.15" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>150</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9">
-        <f>COUNT(A2:A1048576)</f>
+      <c r="C2" s="5">
+        <v>-1300</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>-100</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C3" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-1300</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-1300</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-1500</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -862,173 +1078,181 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="9">
-        <f>COUNT(A2:A1048576)</f>
+      <c r="C2" s="5"/>
+      <c r="D2" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
